--- a/django/bartocfast/fixtures/mappings.xlsx
+++ b/django/bartocfast/fixtures/mappings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itsc-pg2.storage.p.unibas.ch\ub-home$\hinder0000\Documents\GitHub\bartoc-graphql\django\bql\fixtures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itsc-pg2.storage.p.unibas.ch\ub-home$\hinder0000\Documents\GitHub\bartocfast\django\bartocfast\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>SKOS</t>
   </si>
@@ -144,6 +144,18 @@
   </si>
   <si>
     <t>GraphQL</t>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>https://d-nb.info/standards/elementset/gnd#preferredName</t>
+  </si>
+  <si>
+    <t>https://d-nb.info/standards/elementset/gnd#variantName</t>
+  </si>
+  <si>
+    <t>https://d-nb.info/standards/elementset/gnd#definition</t>
   </si>
 </sst>
 </file>
@@ -480,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,9 +504,10 @@
     <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
@@ -507,8 +520,11 @@
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -521,8 +537,11 @@
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -532,16 +551,22 @@
       <c r="C3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -549,7 +574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -560,7 +585,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -568,7 +593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -576,7 +601,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -584,7 +609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -592,7 +617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -600,7 +625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -608,7 +633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -619,7 +644,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -627,7 +652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -637,8 +662,11 @@
       <c r="C15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
